--- a/biology/Botanique/Lotier_des_rocailles/Lotier_des_rocailles.xlsx
+++ b/biology/Botanique/Lotier_des_rocailles/Lotier_des_rocailles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lotus glareosus
 Le Lotier des rocailles (Lotus glareosus) est une plante herbacée vivace de la famille des Fabacées (Légumineuses ou Papilionacées) et du genre Lotier.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace, en gazon lâche ou en coussinets plats, à tiges de 10 à 20 cm de long, couchées à dressées, à poils soyeux appliqués rares à denses. Les feuilles quinées (disposé 5 à 5), pennées (les folioles sont disposées comme les barbes d'une plume) en nombre impair à poils soyeux.
 Les fleurs font 8 à 10 mm de long, sont d'un jaune intense à rougeâtres avec un pédoncule jusqu'à 1,5 mm en capitules à 1 à 6 fleurs.
@@ -544,7 +558,9 @@
           <t>Hábitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lotier des rocailles se rencontre sur des prairies à ovins, sur des sols caillouteux et schisteux à altitude élevée.
 </t>
@@ -575,7 +591,9 @@
           <t>Distributión</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette légumineuse est répartie en Méditerranée occidentale, en moyenne montagne.
 </t>
